--- a/data/pca/factorExposure/factorExposure_2011-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +723,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01572386561246171</v>
+        <v>0.01561585292940209</v>
       </c>
       <c r="C2">
-        <v>0.03429135597196002</v>
+        <v>-0.001469386753618092</v>
       </c>
       <c r="D2">
-        <v>-0.01932385323433351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03363181392716365</v>
+      </c>
+      <c r="E2">
+        <v>-0.003873507688013437</v>
+      </c>
+      <c r="F2">
+        <v>-0.03813489950882946</v>
+      </c>
+      <c r="G2">
+        <v>0.01566482162813628</v>
+      </c>
+      <c r="H2">
+        <v>-0.01096244216340946</v>
+      </c>
+      <c r="I2">
+        <v>0.0163922141578347</v>
+      </c>
+      <c r="J2">
+        <v>0.02879012425064437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +787,60 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.0821353312801891</v>
+        <v>0.09566122896835993</v>
       </c>
       <c r="C4">
-        <v>0.05459076251355922</v>
+        <v>-0.0466064427047409</v>
       </c>
       <c r="D4">
-        <v>-0.07974434713500579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07010818371773997</v>
+      </c>
+      <c r="E4">
+        <v>0.02998132939751388</v>
+      </c>
+      <c r="F4">
+        <v>-0.05189870114426115</v>
+      </c>
+      <c r="G4">
+        <v>-0.02566870884872709</v>
+      </c>
+      <c r="H4">
+        <v>0.008032921324561073</v>
+      </c>
+      <c r="I4">
+        <v>-0.07310866175930741</v>
+      </c>
+      <c r="J4">
+        <v>-0.04495177028770925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +851,380 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1145322591403567</v>
+        <v>0.1284064266159718</v>
       </c>
       <c r="C6">
-        <v>0.04413392750736898</v>
+        <v>4.525530848078527e-05</v>
       </c>
       <c r="D6">
-        <v>-0.01413062329096679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03606111186973732</v>
+      </c>
+      <c r="E6">
+        <v>-0.02428889967589992</v>
+      </c>
+      <c r="F6">
+        <v>-0.03531277002471805</v>
+      </c>
+      <c r="G6">
+        <v>-0.05007692873991743</v>
+      </c>
+      <c r="H6">
+        <v>-0.1774625066752335</v>
+      </c>
+      <c r="I6">
+        <v>-0.01838895715215254</v>
+      </c>
+      <c r="J6">
+        <v>-0.3709601248311526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0643601967384963</v>
+        <v>0.06814695532611323</v>
       </c>
       <c r="C7">
-        <v>0.04813220460722418</v>
+        <v>-0.04019038333036121</v>
       </c>
       <c r="D7">
-        <v>-0.03535066999063627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05374650479144015</v>
+      </c>
+      <c r="E7">
+        <v>0.005111093990163108</v>
+      </c>
+      <c r="F7">
+        <v>-0.05470903615475794</v>
+      </c>
+      <c r="G7">
+        <v>0.01736573442708192</v>
+      </c>
+      <c r="H7">
+        <v>0.01659679814179651</v>
+      </c>
+      <c r="I7">
+        <v>-0.03727971792794878</v>
+      </c>
+      <c r="J7">
+        <v>0.06614921061352359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04082045544116061</v>
+        <v>0.04223887886853403</v>
       </c>
       <c r="C8">
-        <v>-0.000780595141892264</v>
+        <v>-0.02776192541712566</v>
       </c>
       <c r="D8">
-        <v>-0.06310693384520957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01165588057453969</v>
+      </c>
+      <c r="E8">
+        <v>0.033680854127805</v>
+      </c>
+      <c r="F8">
+        <v>-0.06834517506102486</v>
+      </c>
+      <c r="G8">
+        <v>-0.04818777554875438</v>
+      </c>
+      <c r="H8">
+        <v>-0.01871727559905953</v>
+      </c>
+      <c r="I8">
+        <v>-0.1129412946454016</v>
+      </c>
+      <c r="J8">
+        <v>-0.01896155524074897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0727201556069178</v>
+        <v>0.08316102641733665</v>
       </c>
       <c r="C9">
-        <v>0.04158043958049123</v>
+        <v>-0.04559443892966526</v>
       </c>
       <c r="D9">
-        <v>-0.07647617496693605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05809953791255857</v>
+      </c>
+      <c r="E9">
+        <v>0.02857063465711809</v>
+      </c>
+      <c r="F9">
+        <v>-0.04580209981371066</v>
+      </c>
+      <c r="G9">
+        <v>-0.04108593250130375</v>
+      </c>
+      <c r="H9">
+        <v>0.01862828825585583</v>
+      </c>
+      <c r="I9">
+        <v>-0.07597118622586435</v>
+      </c>
+      <c r="J9">
+        <v>-0.03418575562121894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01962555207031603</v>
+        <v>0.05887999686406585</v>
       </c>
       <c r="C10">
-        <v>0.02854393987852719</v>
+        <v>0.1960821975750355</v>
       </c>
       <c r="D10">
-        <v>0.1733148201312395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0237040851818941</v>
+      </c>
+      <c r="E10">
+        <v>-0.003235174450464528</v>
+      </c>
+      <c r="F10">
+        <v>-0.05395847186523795</v>
+      </c>
+      <c r="G10">
+        <v>0.04000280691180007</v>
+      </c>
+      <c r="H10">
+        <v>-0.04518817418186096</v>
+      </c>
+      <c r="I10">
+        <v>0.05966979490157729</v>
+      </c>
+      <c r="J10">
+        <v>-0.006181502764520957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07003529211093723</v>
+        <v>0.0747588199762062</v>
       </c>
       <c r="C11">
-        <v>0.03537628081370076</v>
+        <v>-0.04603247552712068</v>
       </c>
       <c r="D11">
-        <v>-0.05982679329269639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04564253808628922</v>
+      </c>
+      <c r="E11">
+        <v>0.006375537906727957</v>
+      </c>
+      <c r="F11">
+        <v>-0.04140819021020841</v>
+      </c>
+      <c r="G11">
+        <v>-0.05418928695162119</v>
+      </c>
+      <c r="H11">
+        <v>0.04843644217468604</v>
+      </c>
+      <c r="I11">
+        <v>-0.06643825862755416</v>
+      </c>
+      <c r="J11">
+        <v>0.02269848398734118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.06873156966459407</v>
+        <v>0.07286818198112477</v>
       </c>
       <c r="C12">
-        <v>0.04573843706044778</v>
+        <v>-0.03416880130985765</v>
       </c>
       <c r="D12">
-        <v>-0.0458580136009827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04794499357597869</v>
+      </c>
+      <c r="E12">
+        <v>0.01673048565932273</v>
+      </c>
+      <c r="F12">
+        <v>-0.02871112129049808</v>
+      </c>
+      <c r="G12">
+        <v>-0.02894328247117487</v>
+      </c>
+      <c r="H12">
+        <v>0.01796497820510554</v>
+      </c>
+      <c r="I12">
+        <v>-0.08833329040129118</v>
+      </c>
+      <c r="J12">
+        <v>0.03525411099623062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.07077267162041423</v>
+        <v>0.06708959981976162</v>
       </c>
       <c r="C13">
-        <v>0.04870937729539779</v>
+        <v>-0.03046678718316209</v>
       </c>
       <c r="D13">
-        <v>-0.05613279707139297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0463042843271147</v>
+      </c>
+      <c r="E13">
+        <v>0.05031868357239703</v>
+      </c>
+      <c r="F13">
+        <v>-0.02553507882155774</v>
+      </c>
+      <c r="G13">
+        <v>-0.00680050888391564</v>
+      </c>
+      <c r="H13">
+        <v>0.03292616984349795</v>
+      </c>
+      <c r="I13">
+        <v>-0.09573193124311806</v>
+      </c>
+      <c r="J13">
+        <v>0.05510622226320252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.02890524520139682</v>
+        <v>0.0401817021046131</v>
       </c>
       <c r="C14">
-        <v>0.02792448710789668</v>
+        <v>-0.002460111214562703</v>
       </c>
       <c r="D14">
-        <v>-0.005976118295057306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03258375443123287</v>
+      </c>
+      <c r="E14">
+        <v>0.01626673996521557</v>
+      </c>
+      <c r="F14">
+        <v>-0.02144249002834307</v>
+      </c>
+      <c r="G14">
+        <v>-0.02737906238313605</v>
+      </c>
+      <c r="H14">
+        <v>0.07006186973392774</v>
+      </c>
+      <c r="I14">
+        <v>-0.05524079373132427</v>
+      </c>
+      <c r="J14">
+        <v>-0.02280857713028828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.04951847483229066</v>
+        <v>0.04286270108502098</v>
       </c>
       <c r="C15">
-        <v>0.008012841296405499</v>
+        <v>-0.01788729054757561</v>
       </c>
       <c r="D15">
-        <v>-0.02443925571894144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007459451752991674</v>
+      </c>
+      <c r="E15">
+        <v>0.04038587628258121</v>
+      </c>
+      <c r="F15">
+        <v>-0.002453496804276382</v>
+      </c>
+      <c r="G15">
+        <v>-0.02485943442418598</v>
+      </c>
+      <c r="H15">
+        <v>0.01892724498079825</v>
+      </c>
+      <c r="I15">
+        <v>-0.02954303866106145</v>
+      </c>
+      <c r="J15">
+        <v>-0.007244701771441013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.06163658925286768</v>
+        <v>0.0734787410275534</v>
       </c>
       <c r="C16">
-        <v>0.03727353609691843</v>
+        <v>-0.04614263896926558</v>
       </c>
       <c r="D16">
-        <v>-0.06172772335599764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05242736688381568</v>
+      </c>
+      <c r="E16">
+        <v>0.01600075170841931</v>
+      </c>
+      <c r="F16">
+        <v>-0.03428025919731899</v>
+      </c>
+      <c r="G16">
+        <v>-0.02780343145817089</v>
+      </c>
+      <c r="H16">
+        <v>0.03048967658645486</v>
+      </c>
+      <c r="I16">
+        <v>-0.04228182825849187</v>
+      </c>
+      <c r="J16">
+        <v>0.01758548343602142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1235,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1267,28 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1299,252 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.06406881800455269</v>
+        <v>0.06210549956173403</v>
       </c>
       <c r="C20">
-        <v>0.0220124008386728</v>
+        <v>-0.03713162936049547</v>
       </c>
       <c r="D20">
-        <v>-0.05659806755546761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02677832191872365</v>
+      </c>
+      <c r="E20">
+        <v>0.003851524274811917</v>
+      </c>
+      <c r="F20">
+        <v>-0.03050982399769708</v>
+      </c>
+      <c r="G20">
+        <v>-0.01874846094408579</v>
+      </c>
+      <c r="H20">
+        <v>0.0444484058711482</v>
+      </c>
+      <c r="I20">
+        <v>-0.1029712855012028</v>
+      </c>
+      <c r="J20">
+        <v>0.01503319047810315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03620562252986546</v>
+        <v>0.03095159722609394</v>
       </c>
       <c r="C21">
-        <v>0.008102175799820881</v>
+        <v>-0.01713188578760337</v>
       </c>
       <c r="D21">
-        <v>-0.008284032987722042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.00735674357434168</v>
+      </c>
+      <c r="E21">
+        <v>0.03612182293377367</v>
+      </c>
+      <c r="F21">
+        <v>0.003726712309330721</v>
+      </c>
+      <c r="G21">
+        <v>-0.002693222849675896</v>
+      </c>
+      <c r="H21">
+        <v>-0.0536817213571726</v>
+      </c>
+      <c r="I21">
+        <v>-0.03012789954184878</v>
+      </c>
+      <c r="J21">
+        <v>0.01317443482028266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.105487319356</v>
+        <v>0.09228701694427563</v>
       </c>
       <c r="C22">
-        <v>0.03570422268709364</v>
+        <v>-0.05019844675877218</v>
       </c>
       <c r="D22">
-        <v>-0.09186991433445657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02783888765903578</v>
+      </c>
+      <c r="E22">
+        <v>0.5423444455230164</v>
+      </c>
+      <c r="F22">
+        <v>-0.06326214030527035</v>
+      </c>
+      <c r="G22">
+        <v>0.2803965573367529</v>
+      </c>
+      <c r="H22">
+        <v>-0.1325960525979341</v>
+      </c>
+      <c r="I22">
+        <v>0.2401888381107187</v>
+      </c>
+      <c r="J22">
+        <v>0.003305906742154744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.1062559475735167</v>
+        <v>0.09314915286366932</v>
       </c>
       <c r="C23">
-        <v>0.03665228686673871</v>
+        <v>-0.05047317042990093</v>
       </c>
       <c r="D23">
-        <v>-0.0919482632842427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02901505838330208</v>
+      </c>
+      <c r="E23">
+        <v>0.5456325889947976</v>
+      </c>
+      <c r="F23">
+        <v>-0.06505728208100989</v>
+      </c>
+      <c r="G23">
+        <v>0.2749114747845091</v>
+      </c>
+      <c r="H23">
+        <v>-0.1321403731207423</v>
+      </c>
+      <c r="I23">
+        <v>0.2425692521939327</v>
+      </c>
+      <c r="J23">
+        <v>-0.001845729926770885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08016547951270825</v>
+        <v>0.08339111186181476</v>
       </c>
       <c r="C24">
-        <v>0.04317482812215934</v>
+        <v>-0.04373046985269343</v>
       </c>
       <c r="D24">
-        <v>-0.06191004585741142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05087549974331491</v>
+      </c>
+      <c r="E24">
+        <v>0.02134869648150169</v>
+      </c>
+      <c r="F24">
+        <v>-0.04323525629229499</v>
+      </c>
+      <c r="G24">
+        <v>-0.04445192015988814</v>
+      </c>
+      <c r="H24">
+        <v>0.02007518450392653</v>
+      </c>
+      <c r="I24">
+        <v>-0.06365678801702193</v>
+      </c>
+      <c r="J24">
+        <v>0.008411216836262463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07781455562460317</v>
+        <v>0.07828272189579394</v>
       </c>
       <c r="C25">
-        <v>0.04936970727296267</v>
+        <v>-0.03626500796144207</v>
       </c>
       <c r="D25">
-        <v>-0.05949057596734629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05391843060620109</v>
+      </c>
+      <c r="E25">
+        <v>0.02769635009326137</v>
+      </c>
+      <c r="F25">
+        <v>-0.03707490104765215</v>
+      </c>
+      <c r="G25">
+        <v>-0.0456605022135531</v>
+      </c>
+      <c r="H25">
+        <v>0.02971865644179976</v>
+      </c>
+      <c r="I25">
+        <v>-0.07423023254830353</v>
+      </c>
+      <c r="J25">
+        <v>0.008244636296222531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.04577081733318074</v>
+        <v>0.04437529294574664</v>
       </c>
       <c r="C26">
-        <v>0.005187329709605121</v>
+        <v>-0.01945766879409097</v>
       </c>
       <c r="D26">
-        <v>-0.01300779862250102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.001356761579603512</v>
+      </c>
+      <c r="E26">
+        <v>0.03688445385981217</v>
+      </c>
+      <c r="F26">
+        <v>-0.02563099387344381</v>
+      </c>
+      <c r="G26">
+        <v>-0.01756902968814073</v>
+      </c>
+      <c r="H26">
+        <v>0.04278206110787134</v>
+      </c>
+      <c r="I26">
+        <v>-0.010371858720132</v>
+      </c>
+      <c r="J26">
+        <v>0.03931138383028415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1555,316 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.04041286449942645</v>
+        <v>0.07401082963297041</v>
       </c>
       <c r="C28">
-        <v>0.06598040103050137</v>
+        <v>0.2936821422609109</v>
       </c>
       <c r="D28">
-        <v>0.2819747757905967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03772035192630776</v>
+      </c>
+      <c r="E28">
+        <v>0.009962171571686555</v>
+      </c>
+      <c r="F28">
+        <v>-0.03489703487568988</v>
+      </c>
+      <c r="G28">
+        <v>-0.02940964142883124</v>
+      </c>
+      <c r="H28">
+        <v>-0.03782639090538464</v>
+      </c>
+      <c r="I28">
+        <v>0.01458825830204117</v>
+      </c>
+      <c r="J28">
+        <v>0.03815808277683049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05110204527457318</v>
+        <v>0.05337810296963634</v>
       </c>
       <c r="C29">
-        <v>0.04464175014887327</v>
+        <v>0.0009470019051609782</v>
       </c>
       <c r="D29">
-        <v>-0.0003219282850195491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03874281481858892</v>
+      </c>
+      <c r="E29">
+        <v>0.03336978430027759</v>
+      </c>
+      <c r="F29">
+        <v>-0.03439570681949421</v>
+      </c>
+      <c r="G29">
+        <v>-0.01422692954505639</v>
+      </c>
+      <c r="H29">
+        <v>0.09181618541030855</v>
+      </c>
+      <c r="I29">
+        <v>-0.04492799775151159</v>
+      </c>
+      <c r="J29">
+        <v>0.01076730177428703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1438788373835711</v>
+        <v>0.131085679366707</v>
       </c>
       <c r="C30">
-        <v>0.07310715001179982</v>
+        <v>-0.04871675785887905</v>
       </c>
       <c r="D30">
-        <v>-0.09906348471322296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07326669151197086</v>
+      </c>
+      <c r="E30">
+        <v>0.06347835646002987</v>
+      </c>
+      <c r="F30">
+        <v>-0.06560870717595527</v>
+      </c>
+      <c r="G30">
+        <v>-0.04944016815924671</v>
+      </c>
+      <c r="H30">
+        <v>-0.05372379273929762</v>
+      </c>
+      <c r="I30">
+        <v>-0.3112729038974125</v>
+      </c>
+      <c r="J30">
+        <v>0.08423464604210727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05023802573602519</v>
+        <v>0.04584342509383093</v>
       </c>
       <c r="C31">
-        <v>0.02766351163356624</v>
+        <v>-0.03121716868191937</v>
       </c>
       <c r="D31">
-        <v>-0.02459208212457842</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0280686819754659</v>
+      </c>
+      <c r="E31">
+        <v>0.0205896592675475</v>
+      </c>
+      <c r="F31">
+        <v>-0.009492537471141331</v>
+      </c>
+      <c r="G31">
+        <v>0.006041105408317073</v>
+      </c>
+      <c r="H31">
+        <v>0.06557778321576006</v>
+      </c>
+      <c r="I31">
+        <v>-0.02994517955510088</v>
+      </c>
+      <c r="J31">
+        <v>-0.01602808182598972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.04083397685448736</v>
+        <v>0.04502084802516901</v>
       </c>
       <c r="C32">
-        <v>0.008658485400502286</v>
+        <v>0.0004242299580083648</v>
       </c>
       <c r="D32">
-        <v>-0.02614261963593927</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009661986791115613</v>
+      </c>
+      <c r="E32">
+        <v>0.07274710864492372</v>
+      </c>
+      <c r="F32">
+        <v>-0.002813240107513233</v>
+      </c>
+      <c r="G32">
+        <v>-0.01702635382029806</v>
+      </c>
+      <c r="H32">
+        <v>-0.02008401393196255</v>
+      </c>
+      <c r="I32">
+        <v>0.02494882570484684</v>
+      </c>
+      <c r="J32">
+        <v>0.07163603946214675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.09472245708376116</v>
+        <v>0.09886584466163668</v>
       </c>
       <c r="C33">
-        <v>0.04173648964636327</v>
+        <v>-0.03934939829675661</v>
       </c>
       <c r="D33">
-        <v>-0.04500388254549004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04081672626162107</v>
+      </c>
+      <c r="E33">
+        <v>0.02982473396350358</v>
+      </c>
+      <c r="F33">
+        <v>-0.009216553335546333</v>
+      </c>
+      <c r="G33">
+        <v>-0.0008995541075206114</v>
+      </c>
+      <c r="H33">
+        <v>0.05263275687282215</v>
+      </c>
+      <c r="I33">
+        <v>-0.07331354914669171</v>
+      </c>
+      <c r="J33">
+        <v>-0.009946023292328372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06040477570604701</v>
+        <v>0.06851011351407105</v>
       </c>
       <c r="C34">
-        <v>0.02176522172445541</v>
+        <v>-0.03798161004301542</v>
       </c>
       <c r="D34">
-        <v>-0.05591009765611237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03259564909916759</v>
+      </c>
+      <c r="E34">
+        <v>0.01910095418617178</v>
+      </c>
+      <c r="F34">
+        <v>-0.02809271234452556</v>
+      </c>
+      <c r="G34">
+        <v>-0.02754644392829609</v>
+      </c>
+      <c r="H34">
+        <v>0.03949897256068245</v>
+      </c>
+      <c r="I34">
+        <v>-0.05162320708567045</v>
+      </c>
+      <c r="J34">
+        <v>-0.008590504404999269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.03852557180683308</v>
+        <v>0.03709079024565134</v>
       </c>
       <c r="C35">
-        <v>0.01426534448611591</v>
+        <v>-0.01443425015980625</v>
       </c>
       <c r="D35">
-        <v>-0.01547676619162076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0161711017195277</v>
+      </c>
+      <c r="E35">
+        <v>0.01440159906467406</v>
+      </c>
+      <c r="F35">
+        <v>0.01159078180271641</v>
+      </c>
+      <c r="G35">
+        <v>-0.002912357892141693</v>
+      </c>
+      <c r="H35">
+        <v>0.03179198023953038</v>
+      </c>
+      <c r="I35">
+        <v>-0.04993086612093996</v>
+      </c>
+      <c r="J35">
+        <v>0.01091385021336736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03220104067873273</v>
+        <v>0.03152851853766483</v>
       </c>
       <c r="C36">
-        <v>0.0143857959040141</v>
+        <v>-0.01201761302939827</v>
       </c>
       <c r="D36">
-        <v>-0.01960931831915492</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01401102533773509</v>
+      </c>
+      <c r="E36">
+        <v>0.03425354774007687</v>
+      </c>
+      <c r="F36">
+        <v>-0.03504579298823198</v>
+      </c>
+      <c r="G36">
+        <v>-0.01575929447682461</v>
+      </c>
+      <c r="H36">
+        <v>0.03546977645637144</v>
+      </c>
+      <c r="I36">
+        <v>-0.06426560524751497</v>
+      </c>
+      <c r="J36">
+        <v>0.01205091993545989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1875,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.06911002554016787</v>
+        <v>0.05841984909199053</v>
       </c>
       <c r="C38">
-        <v>0.003879043968901667</v>
+        <v>-0.02500516182977476</v>
       </c>
       <c r="D38">
-        <v>0.002584144123936829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005116921062315536</v>
+      </c>
+      <c r="E38">
+        <v>0.03352610819473316</v>
+      </c>
+      <c r="F38">
+        <v>-0.007196860412294943</v>
+      </c>
+      <c r="G38">
+        <v>0.009728021969426003</v>
+      </c>
+      <c r="H38">
+        <v>0.03903424969788291</v>
+      </c>
+      <c r="I38">
+        <v>-0.004400648600383017</v>
+      </c>
+      <c r="J38">
+        <v>0.0445856383938455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.08994517632854741</v>
+        <v>0.09803638319169974</v>
       </c>
       <c r="C39">
-        <v>0.05275561069329328</v>
+        <v>-0.03461842302725596</v>
       </c>
       <c r="D39">
-        <v>-0.0482529072377697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05927499247420529</v>
+      </c>
+      <c r="E39">
+        <v>0.02086997592999767</v>
+      </c>
+      <c r="F39">
+        <v>-0.02551665464075055</v>
+      </c>
+      <c r="G39">
+        <v>-0.03467609414262582</v>
+      </c>
+      <c r="H39">
+        <v>0.01365275026823446</v>
+      </c>
+      <c r="I39">
+        <v>-0.06586584393977978</v>
+      </c>
+      <c r="J39">
+        <v>0.1040241373755873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07488154999116761</v>
+        <v>0.05424236492925982</v>
       </c>
       <c r="C40">
-        <v>0.02188526321358102</v>
+        <v>-0.03940145927354272</v>
       </c>
       <c r="D40">
-        <v>-0.02324056038561624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.007293155536516756</v>
+      </c>
+      <c r="E40">
+        <v>0.06736371061010979</v>
+      </c>
+      <c r="F40">
+        <v>0.004411002385498475</v>
+      </c>
+      <c r="G40">
+        <v>-0.02649541326539559</v>
+      </c>
+      <c r="H40">
+        <v>-0.04784107667105426</v>
+      </c>
+      <c r="I40">
+        <v>-0.24358571822398</v>
+      </c>
+      <c r="J40">
+        <v>0.1711690164232205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.05357908828082129</v>
+        <v>0.04645577462665262</v>
       </c>
       <c r="C41">
-        <v>0.006465754667341632</v>
+        <v>-0.03590196844003408</v>
       </c>
       <c r="D41">
-        <v>-0.0324272280370438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.007413926164621018</v>
+      </c>
+      <c r="E41">
+        <v>-0.006150670039198712</v>
+      </c>
+      <c r="F41">
+        <v>0.01105892109290821</v>
+      </c>
+      <c r="G41">
+        <v>-0.01781397520202309</v>
+      </c>
+      <c r="H41">
+        <v>0.04240502751347424</v>
+      </c>
+      <c r="I41">
+        <v>-0.03103675985810782</v>
+      </c>
+      <c r="J41">
+        <v>0.04969252165731278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +2035,92 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.05864542085375722</v>
+        <v>0.06121849063887065</v>
       </c>
       <c r="C43">
-        <v>0.02448262979251599</v>
+        <v>-0.02647344933402384</v>
       </c>
       <c r="D43">
-        <v>-0.01237834316145222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02448302397262462</v>
+      </c>
+      <c r="E43">
+        <v>0.01290419828059634</v>
+      </c>
+      <c r="F43">
+        <v>-0.02036030984946278</v>
+      </c>
+      <c r="G43">
+        <v>0.008230857204910826</v>
+      </c>
+      <c r="H43">
+        <v>0.06085324618535298</v>
+      </c>
+      <c r="I43">
+        <v>-0.003558009517645088</v>
+      </c>
+      <c r="J43">
+        <v>0.0194988403759133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.09444762972268725</v>
+        <v>0.09641199514255298</v>
       </c>
       <c r="C44">
-        <v>0.01639807884177436</v>
+        <v>-0.04776116126543403</v>
       </c>
       <c r="D44">
-        <v>-0.05243646454438645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02471250329815789</v>
+      </c>
+      <c r="E44">
+        <v>0.07945269511353741</v>
+      </c>
+      <c r="F44">
+        <v>-0.1109310514187796</v>
+      </c>
+      <c r="G44">
+        <v>-0.05966709330755832</v>
+      </c>
+      <c r="H44">
+        <v>0.04228356957478285</v>
+      </c>
+      <c r="I44">
+        <v>-0.1225447712027588</v>
+      </c>
+      <c r="J44">
+        <v>0.03149068629852313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +2131,220 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02927748628444385</v>
+        <v>0.04300629574753338</v>
       </c>
       <c r="C46">
-        <v>0.02280720740953127</v>
+        <v>-0.02378739713274586</v>
       </c>
       <c r="D46">
-        <v>-0.03225347095833973</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03596543637609754</v>
+      </c>
+      <c r="E46">
+        <v>0.02853656344374792</v>
+      </c>
+      <c r="F46">
+        <v>-0.03065231485213686</v>
+      </c>
+      <c r="G46">
+        <v>0.003687429084121607</v>
+      </c>
+      <c r="H46">
+        <v>0.02183149130845378</v>
+      </c>
+      <c r="I46">
+        <v>-0.01321577119174185</v>
+      </c>
+      <c r="J46">
+        <v>-0.01319600000730516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.03744897349013936</v>
+        <v>0.04708340642810004</v>
       </c>
       <c r="C47">
-        <v>0.02697489292245754</v>
+        <v>-0.001236814329720883</v>
       </c>
       <c r="D47">
-        <v>0.004676833313463178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0235033260300831</v>
+      </c>
+      <c r="E47">
+        <v>0.03942308131928528</v>
+      </c>
+      <c r="F47">
+        <v>-0.003127778483217396</v>
+      </c>
+      <c r="G47">
+        <v>0.02653446115967241</v>
+      </c>
+      <c r="H47">
+        <v>0.02438917189663667</v>
+      </c>
+      <c r="I47">
+        <v>-0.03894810453305901</v>
+      </c>
+      <c r="J47">
+        <v>-0.03301473735477803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04444117154052516</v>
+        <v>0.04298875604267832</v>
       </c>
       <c r="C48">
-        <v>0.02282021804471042</v>
+        <v>-0.01488444684115271</v>
       </c>
       <c r="D48">
-        <v>-0.02809258000059476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01757041412081824</v>
+      </c>
+      <c r="E48">
+        <v>0.05031414339160416</v>
+      </c>
+      <c r="F48">
+        <v>-0.01369098681787483</v>
+      </c>
+      <c r="G48">
+        <v>-0.008734853684493367</v>
+      </c>
+      <c r="H48">
+        <v>0.01015967233046384</v>
+      </c>
+      <c r="I48">
+        <v>-0.0456724928704589</v>
+      </c>
+      <c r="J48">
+        <v>0.008902997431119324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.1495804923587919</v>
+        <v>0.198650279516381</v>
       </c>
       <c r="C49">
-        <v>0.0476668356319935</v>
+        <v>-0.01021429131952303</v>
       </c>
       <c r="D49">
-        <v>-0.02903892697919336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.05425313751461593</v>
+      </c>
+      <c r="E49">
+        <v>-0.22130169059128</v>
+      </c>
+      <c r="F49">
+        <v>0.01729268029717268</v>
+      </c>
+      <c r="G49">
+        <v>0.1283619288479548</v>
+      </c>
+      <c r="H49">
+        <v>-0.2175650118137287</v>
+      </c>
+      <c r="I49">
+        <v>0.07404707215477684</v>
+      </c>
+      <c r="J49">
+        <v>-0.09399542617562903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05111231376984569</v>
+        <v>0.0506037126155908</v>
       </c>
       <c r="C50">
-        <v>0.03678705238027043</v>
+        <v>-0.02661054548271305</v>
       </c>
       <c r="D50">
-        <v>-0.03623006331273335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03992673657098334</v>
+      </c>
+      <c r="E50">
+        <v>0.0241547242848857</v>
+      </c>
+      <c r="F50">
+        <v>-0.00501287859506175</v>
+      </c>
+      <c r="G50">
+        <v>-0.01004465924375847</v>
+      </c>
+      <c r="H50">
+        <v>0.06698318173023217</v>
+      </c>
+      <c r="I50">
+        <v>-0.02954956487759914</v>
+      </c>
+      <c r="J50">
+        <v>-0.03204837300094014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.02899385974415571</v>
+        <v>0.03727882907218227</v>
       </c>
       <c r="C51">
-        <v>-0.005848327430972394</v>
+        <v>0.004549682320390938</v>
       </c>
       <c r="D51">
-        <v>0.01146752632354855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01305233454165106</v>
+      </c>
+      <c r="E51">
+        <v>-0.01589260278011597</v>
+      </c>
+      <c r="F51">
+        <v>-0.01463033990507026</v>
+      </c>
+      <c r="G51">
+        <v>0.02355769830123244</v>
+      </c>
+      <c r="H51">
+        <v>-0.02515424061542941</v>
+      </c>
+      <c r="I51">
+        <v>0.02147007298426373</v>
+      </c>
+      <c r="J51">
+        <v>0.01473432084341739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2355,156 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1574388321659732</v>
+        <v>0.1597422984838421</v>
       </c>
       <c r="C53">
-        <v>0.07478541320798109</v>
+        <v>-0.003177178140926832</v>
       </c>
       <c r="D53">
-        <v>0.01500497112493704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05220226685456436</v>
+      </c>
+      <c r="E53">
+        <v>-0.03107099364573939</v>
+      </c>
+      <c r="F53">
+        <v>0.008978213713508475</v>
+      </c>
+      <c r="G53">
+        <v>0.00403660592018389</v>
+      </c>
+      <c r="H53">
+        <v>0.2092631518116247</v>
+      </c>
+      <c r="I53">
+        <v>0.1031904549831755</v>
+      </c>
+      <c r="J53">
+        <v>-0.07385243258684009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.06234427574302601</v>
+        <v>0.06187537146692261</v>
       </c>
       <c r="C54">
-        <v>0.02173930569442271</v>
+        <v>-0.004928095190445732</v>
       </c>
       <c r="D54">
-        <v>-0.02015084436183849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.021430898454392</v>
+      </c>
+      <c r="E54">
+        <v>0.067508061739289</v>
+      </c>
+      <c r="F54">
+        <v>-0.03653623851588246</v>
+      </c>
+      <c r="G54">
+        <v>-0.05090539911263729</v>
+      </c>
+      <c r="H54">
+        <v>0.04222087874620833</v>
+      </c>
+      <c r="I54">
+        <v>-0.1189653074710375</v>
+      </c>
+      <c r="J54">
+        <v>0.009114205460951768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09925034221137839</v>
+        <v>0.1000061158092318</v>
       </c>
       <c r="C55">
-        <v>0.04988309236008693</v>
+        <v>-0.01616338019680684</v>
       </c>
       <c r="D55">
-        <v>-0.01107819976354038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04040552730000634</v>
+      </c>
+      <c r="E55">
+        <v>-0.005532251105478086</v>
+      </c>
+      <c r="F55">
+        <v>-0.01844584546414291</v>
+      </c>
+      <c r="G55">
+        <v>-0.0268007427535226</v>
+      </c>
+      <c r="H55">
+        <v>0.1604395699187145</v>
+      </c>
+      <c r="I55">
+        <v>0.02561546204927025</v>
+      </c>
+      <c r="J55">
+        <v>-0.0605158842354787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1469914812559645</v>
+        <v>0.1514631566570395</v>
       </c>
       <c r="C56">
-        <v>0.08702956345274623</v>
+        <v>-0.01678176509879612</v>
       </c>
       <c r="D56">
-        <v>0.009205509748279616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06782743813821288</v>
+      </c>
+      <c r="E56">
+        <v>-0.01594436258718315</v>
+      </c>
+      <c r="F56">
+        <v>-0.01316975313146918</v>
+      </c>
+      <c r="G56">
+        <v>-0.01992973730499146</v>
+      </c>
+      <c r="H56">
+        <v>0.2032222248924118</v>
+      </c>
+      <c r="I56">
+        <v>0.1185381324262961</v>
+      </c>
+      <c r="J56">
+        <v>-0.02334638363792275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2515,1244 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1245707605218917</v>
+        <v>0.08886952243312213</v>
       </c>
       <c r="C58">
-        <v>-0.04591152809862714</v>
+        <v>-0.05965157308980347</v>
       </c>
       <c r="D58">
-        <v>-0.05194110397033246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06682344639531351</v>
+      </c>
+      <c r="E58">
+        <v>0.1169950991621794</v>
+      </c>
+      <c r="F58">
+        <v>-0.06693816281569717</v>
+      </c>
+      <c r="G58">
+        <v>0.1255720842181329</v>
+      </c>
+      <c r="H58">
+        <v>-0.1821641035205629</v>
+      </c>
+      <c r="I58">
+        <v>-0.5222710809242421</v>
+      </c>
+      <c r="J58">
+        <v>0.02948053018840618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1220844952134499</v>
+        <v>0.157316172790142</v>
       </c>
       <c r="C59">
-        <v>0.08217622920456025</v>
+        <v>0.3635849086699709</v>
       </c>
       <c r="D59">
-        <v>0.4383544464081439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07161024291424779</v>
+      </c>
+      <c r="E59">
+        <v>-0.005518304301091807</v>
+      </c>
+      <c r="F59">
+        <v>-0.001666270159807538</v>
+      </c>
+      <c r="G59">
+        <v>-0.0146171480305313</v>
+      </c>
+      <c r="H59">
+        <v>0.02221428136044667</v>
+      </c>
+      <c r="I59">
+        <v>0.05148817109017461</v>
+      </c>
+      <c r="J59">
+        <v>0.06452301468189346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2151683690753025</v>
+        <v>0.2433665886627366</v>
       </c>
       <c r="C60">
-        <v>0.07572972403648576</v>
+        <v>-0.02237104607325859</v>
       </c>
       <c r="D60">
-        <v>0.001274370549451619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.060535891962466</v>
+      </c>
+      <c r="E60">
+        <v>-0.1533834208547469</v>
+      </c>
+      <c r="F60">
+        <v>-0.014746010818157</v>
+      </c>
+      <c r="G60">
+        <v>0.00532925676367641</v>
+      </c>
+      <c r="H60">
+        <v>-0.1494304287456979</v>
+      </c>
+      <c r="I60">
+        <v>0.123794321579513</v>
+      </c>
+      <c r="J60">
+        <v>-0.1531164467494573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.07868776453597454</v>
+        <v>0.08794652973340902</v>
       </c>
       <c r="C61">
-        <v>0.04991132656917901</v>
+        <v>-0.02332871311268177</v>
       </c>
       <c r="D61">
-        <v>-0.02689596483170366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05299637689326232</v>
+      </c>
+      <c r="E61">
+        <v>0.01495937009908802</v>
+      </c>
+      <c r="F61">
+        <v>-0.02674724614138105</v>
+      </c>
+      <c r="G61">
+        <v>-0.04534840096493907</v>
+      </c>
+      <c r="H61">
+        <v>0.06569234688953758</v>
+      </c>
+      <c r="I61">
+        <v>-0.03615364436323171</v>
+      </c>
+      <c r="J61">
+        <v>0.06799328017053266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1479880280497971</v>
+        <v>0.1473226840090512</v>
       </c>
       <c r="C62">
-        <v>0.04448190115728012</v>
+        <v>-0.02843540473960535</v>
       </c>
       <c r="D62">
-        <v>0.01177973003675096</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03052243438411343</v>
+      </c>
+      <c r="E62">
+        <v>-0.03891063218850355</v>
+      </c>
+      <c r="F62">
+        <v>0.03340330084130354</v>
+      </c>
+      <c r="G62">
+        <v>-0.04457996298390957</v>
+      </c>
+      <c r="H62">
+        <v>0.1937576423973312</v>
+      </c>
+      <c r="I62">
+        <v>0.1169380785781658</v>
+      </c>
+      <c r="J62">
+        <v>-0.07741882788051668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.06042464568938337</v>
+        <v>0.0541535018917833</v>
       </c>
       <c r="C63">
-        <v>0.01107210336484325</v>
+        <v>-0.01966493159745031</v>
       </c>
       <c r="D63">
-        <v>-0.02636460347924693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01239933903348526</v>
+      </c>
+      <c r="E63">
+        <v>0.03037212159257394</v>
+      </c>
+      <c r="F63">
+        <v>-0.00879717824019686</v>
+      </c>
+      <c r="G63">
+        <v>-0.04917314132914201</v>
+      </c>
+      <c r="H63">
+        <v>0.03540674198033941</v>
+      </c>
+      <c r="I63">
+        <v>-0.03721057449586209</v>
+      </c>
+      <c r="J63">
+        <v>-0.01099275349901875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1034632207576546</v>
+        <v>0.1107751493805165</v>
       </c>
       <c r="C64">
-        <v>0.03610758606280799</v>
+        <v>-0.009729812451693264</v>
       </c>
       <c r="D64">
-        <v>-0.01163728618118373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03300948360332902</v>
+      </c>
+      <c r="E64">
+        <v>0.03133681729151563</v>
+      </c>
+      <c r="F64">
+        <v>-0.05745727418264303</v>
+      </c>
+      <c r="G64">
+        <v>-0.04798153924772505</v>
+      </c>
+      <c r="H64">
+        <v>0.005862205359197914</v>
+      </c>
+      <c r="I64">
+        <v>-0.05023829869201473</v>
+      </c>
+      <c r="J64">
+        <v>0.03182162415428053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1240506017369046</v>
+        <v>0.1315035537876296</v>
       </c>
       <c r="C65">
-        <v>0.03888920953319383</v>
+        <v>-0.00103951452806408</v>
       </c>
       <c r="D65">
-        <v>-0.02964160128283104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03400867914498379</v>
+      </c>
+      <c r="E65">
+        <v>-0.0120906733490849</v>
+      </c>
+      <c r="F65">
+        <v>-0.01853210573422744</v>
+      </c>
+      <c r="G65">
+        <v>-0.08626472530201784</v>
+      </c>
+      <c r="H65">
+        <v>-0.1998202478328427</v>
+      </c>
+      <c r="I65">
+        <v>-0.05635815033633432</v>
+      </c>
+      <c r="J65">
+        <v>-0.5628950428967273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1547115973227736</v>
+        <v>0.1487491666739607</v>
       </c>
       <c r="C66">
-        <v>0.0710483071504513</v>
+        <v>-0.07872613054706978</v>
       </c>
       <c r="D66">
-        <v>-0.08308555986749427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08156437552875209</v>
+      </c>
+      <c r="E66">
+        <v>0.003045983534089556</v>
+      </c>
+      <c r="F66">
+        <v>-0.01900698976501385</v>
+      </c>
+      <c r="G66">
+        <v>-0.07970586847047671</v>
+      </c>
+      <c r="H66">
+        <v>0.06409828910489146</v>
+      </c>
+      <c r="I66">
+        <v>-0.1134479669188787</v>
+      </c>
+      <c r="J66">
+        <v>0.1884634825544046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.098575585477475</v>
+        <v>0.1006650911065437</v>
       </c>
       <c r="C67">
-        <v>0.008594108517374082</v>
+        <v>-0.03098430808115896</v>
       </c>
       <c r="D67">
-        <v>0.001281363924425349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004641536519162402</v>
+      </c>
+      <c r="E67">
+        <v>-0.0009441520209556554</v>
+      </c>
+      <c r="F67">
+        <v>-0.01466863497016259</v>
+      </c>
+      <c r="G67">
+        <v>0.01873386653357958</v>
+      </c>
+      <c r="H67">
+        <v>0.02673785714775764</v>
+      </c>
+      <c r="I67">
+        <v>0.02857178396121722</v>
+      </c>
+      <c r="J67">
+        <v>0.06663737264519873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04378431913275352</v>
+        <v>0.07214292258899169</v>
       </c>
       <c r="C68">
-        <v>0.04972377172072801</v>
+        <v>0.2800293041613889</v>
       </c>
       <c r="D68">
-        <v>0.2554730866974254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04401623739280129</v>
+      </c>
+      <c r="E68">
+        <v>0.03503070171110806</v>
+      </c>
+      <c r="F68">
+        <v>-0.02181723113878646</v>
+      </c>
+      <c r="G68">
+        <v>0.003526407803715565</v>
+      </c>
+      <c r="H68">
+        <v>0.01560101521600951</v>
+      </c>
+      <c r="I68">
+        <v>-0.0169386895217201</v>
+      </c>
+      <c r="J68">
+        <v>-0.03806399480287647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06839006336115928</v>
+        <v>0.05864746660287753</v>
       </c>
       <c r="C69">
-        <v>0.02103315331111237</v>
+        <v>-0.01579836924387813</v>
       </c>
       <c r="D69">
-        <v>-0.01415356240768236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009641337328181929</v>
+      </c>
+      <c r="E69">
+        <v>0.02570554679015527</v>
+      </c>
+      <c r="F69">
+        <v>0.009201856156103649</v>
+      </c>
+      <c r="G69">
+        <v>0.0004741887964039337</v>
+      </c>
+      <c r="H69">
+        <v>0.03817780983982727</v>
+      </c>
+      <c r="I69">
+        <v>-0.00827972637466858</v>
+      </c>
+      <c r="J69">
+        <v>0.003852614261933857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.009411784740083466</v>
+        <v>0.03272665723479774</v>
       </c>
       <c r="C70">
-        <v>0.003539261278461504</v>
+        <v>0.003864474528094242</v>
       </c>
       <c r="D70">
-        <v>0.009724623041687691</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002805164030052575</v>
+      </c>
+      <c r="E70">
+        <v>-0.02915512147653223</v>
+      </c>
+      <c r="F70">
+        <v>0.006884249250912054</v>
+      </c>
+      <c r="G70">
+        <v>0.007699671215494709</v>
+      </c>
+      <c r="H70">
+        <v>-0.02379482457560581</v>
+      </c>
+      <c r="I70">
+        <v>-0.01290398682789736</v>
+      </c>
+      <c r="J70">
+        <v>0.09042300228447873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04006314214611592</v>
+        <v>0.07822088652031098</v>
       </c>
       <c r="C71">
-        <v>0.046169102455147</v>
+        <v>0.3007241932984157</v>
       </c>
       <c r="D71">
-        <v>0.28797561367222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04855415450138383</v>
+      </c>
+      <c r="E71">
+        <v>0.02580718924612902</v>
+      </c>
+      <c r="F71">
+        <v>-0.04372514834386525</v>
+      </c>
+      <c r="G71">
+        <v>-0.005451217688523814</v>
+      </c>
+      <c r="H71">
+        <v>0.01739365828749743</v>
+      </c>
+      <c r="I71">
+        <v>-0.01552329454465715</v>
+      </c>
+      <c r="J71">
+        <v>-0.01303527700601984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1446899306550942</v>
+        <v>0.1383564965212524</v>
       </c>
       <c r="C72">
-        <v>0.03717537479682976</v>
+        <v>0.00154663037063788</v>
       </c>
       <c r="D72">
-        <v>0.03041777429699574</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004019744970971664</v>
+      </c>
+      <c r="E72">
+        <v>-0.002922158530566931</v>
+      </c>
+      <c r="F72">
+        <v>0.1751004696027962</v>
+      </c>
+      <c r="G72">
+        <v>-0.1198231272204875</v>
+      </c>
+      <c r="H72">
+        <v>0.01047369951835152</v>
+      </c>
+      <c r="I72">
+        <v>0.005210896522132831</v>
+      </c>
+      <c r="J72">
+        <v>-0.1600919194367549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2601213481425336</v>
+        <v>0.2588554616563377</v>
       </c>
       <c r="C73">
-        <v>0.06379887857041748</v>
+        <v>-0.09255273488841524</v>
       </c>
       <c r="D73">
-        <v>-0.06371398624122335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04609316901254416</v>
+      </c>
+      <c r="E73">
+        <v>-0.3568963915926681</v>
+      </c>
+      <c r="F73">
+        <v>0.01168632509070962</v>
+      </c>
+      <c r="G73">
+        <v>0.2109623696089102</v>
+      </c>
+      <c r="H73">
+        <v>-0.3095830251508628</v>
+      </c>
+      <c r="I73">
+        <v>0.06385876402611784</v>
+      </c>
+      <c r="J73">
+        <v>0.01102619501100673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.08745324782283939</v>
+        <v>0.09336935909277784</v>
       </c>
       <c r="C74">
-        <v>0.06946150581210027</v>
+        <v>-0.01632562174235333</v>
       </c>
       <c r="D74">
-        <v>-0.004025535075961751</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06029978953660633</v>
+      </c>
+      <c r="E74">
+        <v>-0.008373244906163216</v>
+      </c>
+      <c r="F74">
+        <v>0.00451858062553272</v>
+      </c>
+      <c r="G74">
+        <v>0.02457688450311462</v>
+      </c>
+      <c r="H74">
+        <v>0.130914596541206</v>
+      </c>
+      <c r="I74">
+        <v>0.02213331939749979</v>
+      </c>
+      <c r="J74">
+        <v>-0.03412228931516828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.1145400981297176</v>
+        <v>0.1056511230939561</v>
       </c>
       <c r="C75">
-        <v>0.03685230178001041</v>
+        <v>-0.02329580512500488</v>
       </c>
       <c r="D75">
-        <v>-0.002390351538955136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01447812773704792</v>
+      </c>
+      <c r="E75">
+        <v>0.004606338947572493</v>
+      </c>
+      <c r="F75">
+        <v>0.003401846839686645</v>
+      </c>
+      <c r="G75">
+        <v>0.009387955373511074</v>
+      </c>
+      <c r="H75">
+        <v>0.113599956264621</v>
+      </c>
+      <c r="I75">
+        <v>0.05459339357550196</v>
+      </c>
+      <c r="J75">
+        <v>-0.01498322367983075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1348341585729363</v>
+        <v>0.1339313487798849</v>
       </c>
       <c r="C76">
-        <v>0.07985733746041372</v>
+        <v>-0.03573053316238138</v>
       </c>
       <c r="D76">
-        <v>-0.02122992039569275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07492645867848036</v>
+      </c>
+      <c r="E76">
+        <v>0.001238822981867616</v>
+      </c>
+      <c r="F76">
+        <v>-0.02512292745218063</v>
+      </c>
+      <c r="G76">
+        <v>-0.02739204944148112</v>
+      </c>
+      <c r="H76">
+        <v>0.2574206574986102</v>
+      </c>
+      <c r="I76">
+        <v>0.1037262888913611</v>
+      </c>
+      <c r="J76">
+        <v>-0.03890867947376856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1332454297746719</v>
+        <v>0.1006379721914632</v>
       </c>
       <c r="C77">
-        <v>-0.0368766658002445</v>
+        <v>-0.05766460773002915</v>
       </c>
       <c r="D77">
-        <v>-0.0653139598652854</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05732750360134834</v>
+      </c>
+      <c r="E77">
+        <v>0.1316839449908729</v>
+      </c>
+      <c r="F77">
+        <v>-0.08127920449983628</v>
+      </c>
+      <c r="G77">
+        <v>-0.7617220601105846</v>
+      </c>
+      <c r="H77">
+        <v>-0.3041641597026457</v>
+      </c>
+      <c r="I77">
+        <v>0.2938463346067122</v>
+      </c>
+      <c r="J77">
+        <v>0.2375028681376849</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.1150258813439478</v>
+        <v>0.1577387878168075</v>
       </c>
       <c r="C78">
-        <v>0.03015332456721207</v>
+        <v>-0.05277531377949221</v>
       </c>
       <c r="D78">
-        <v>-0.07927818071290627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06277595205648225</v>
+      </c>
+      <c r="E78">
+        <v>0.09994033981250709</v>
+      </c>
+      <c r="F78">
+        <v>-0.07326484593938271</v>
+      </c>
+      <c r="G78">
+        <v>0.00798510883784675</v>
+      </c>
+      <c r="H78">
+        <v>-0.1589453944594721</v>
+      </c>
+      <c r="I78">
+        <v>-0.03459923222889134</v>
+      </c>
+      <c r="J78">
+        <v>-0.1113990801291413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1395399952278124</v>
+        <v>0.1413845276367672</v>
       </c>
       <c r="C79">
-        <v>0.05306933560120819</v>
+        <v>-0.03342599515308931</v>
       </c>
       <c r="D79">
-        <v>-0.0294207968628245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04231103134196167</v>
+      </c>
+      <c r="E79">
+        <v>-0.02220140943558562</v>
+      </c>
+      <c r="F79">
+        <v>-0.009481545090819747</v>
+      </c>
+      <c r="G79">
+        <v>-0.02859628841302582</v>
+      </c>
+      <c r="H79">
+        <v>0.1820596764099766</v>
+      </c>
+      <c r="I79">
+        <v>0.07581324133317746</v>
+      </c>
+      <c r="J79">
+        <v>-0.07746289832436906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04099818956255073</v>
+        <v>0.04432084918448202</v>
       </c>
       <c r="C80">
-        <v>0.01539603673306066</v>
+        <v>-0.006849373042040068</v>
       </c>
       <c r="D80">
-        <v>-0.01798289511635682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01632191068649968</v>
+      </c>
+      <c r="E80">
+        <v>-0.04489117469751212</v>
+      </c>
+      <c r="F80">
+        <v>-0.005056760369252054</v>
+      </c>
+      <c r="G80">
+        <v>0.007244482682788021</v>
+      </c>
+      <c r="H80">
+        <v>0.01947353475187886</v>
+      </c>
+      <c r="I80">
+        <v>-0.1211535477190467</v>
+      </c>
+      <c r="J80">
+        <v>-0.01618592501148629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1360494127792289</v>
+        <v>0.1322797256114517</v>
       </c>
       <c r="C81">
-        <v>0.06965233429096272</v>
+        <v>-0.01415779162446913</v>
       </c>
       <c r="D81">
-        <v>-0.007177375398920867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04964423348988159</v>
+      </c>
+      <c r="E81">
+        <v>0.00195311124182355</v>
+      </c>
+      <c r="F81">
+        <v>-0.01802300847082508</v>
+      </c>
+      <c r="G81">
+        <v>-0.01087533116007227</v>
+      </c>
+      <c r="H81">
+        <v>0.1577471040798791</v>
+      </c>
+      <c r="I81">
+        <v>0.02051258282957329</v>
+      </c>
+      <c r="J81">
+        <v>0.01338661846995303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1279321071346718</v>
+        <v>0.1244314929545841</v>
       </c>
       <c r="C82">
-        <v>0.05159801046704886</v>
+        <v>-0.02075244250282724</v>
       </c>
       <c r="D82">
-        <v>-0.01272528786296419</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0400845412594922</v>
+      </c>
+      <c r="E82">
+        <v>-0.01367845563107076</v>
+      </c>
+      <c r="F82">
+        <v>-0.02420266527585227</v>
+      </c>
+      <c r="G82">
+        <v>0.007395243057035004</v>
+      </c>
+      <c r="H82">
+        <v>0.2578100438488913</v>
+      </c>
+      <c r="I82">
+        <v>0.1033377516500324</v>
+      </c>
+      <c r="J82">
+        <v>0.02621028175012983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.06862553061141072</v>
+        <v>0.08351930614685912</v>
       </c>
       <c r="C83">
-        <v>-0.02908882356332169</v>
+        <v>-0.02341507580194811</v>
       </c>
       <c r="D83">
-        <v>0.01357911797822826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03276594286068085</v>
+      </c>
+      <c r="E83">
+        <v>-0.002871739035853946</v>
+      </c>
+      <c r="F83">
+        <v>-0.03156032171461056</v>
+      </c>
+      <c r="G83">
+        <v>0.06301572366690748</v>
+      </c>
+      <c r="H83">
+        <v>-0.00768837220045314</v>
+      </c>
+      <c r="I83">
+        <v>-0.09319243635475685</v>
+      </c>
+      <c r="J83">
+        <v>0.1084363706330552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04072610287684492</v>
+        <v>0.03489193207527756</v>
       </c>
       <c r="C84">
-        <v>0.02578855301668672</v>
+        <v>-0.03645368092888689</v>
       </c>
       <c r="D84">
-        <v>-0.03316879065335067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02835751973924601</v>
+      </c>
+      <c r="E84">
+        <v>0.03233257259255015</v>
+      </c>
+      <c r="F84">
+        <v>0.03602328482098937</v>
+      </c>
+      <c r="G84">
+        <v>0.04430370848618783</v>
+      </c>
+      <c r="H84">
+        <v>0.03857933633387922</v>
+      </c>
+      <c r="I84">
+        <v>-0.096080712862714</v>
+      </c>
+      <c r="J84">
+        <v>0.02299831429332585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1096387969253353</v>
+        <v>0.1184839140235268</v>
       </c>
       <c r="C85">
-        <v>0.0284145584545211</v>
+        <v>-0.03197456053255642</v>
       </c>
       <c r="D85">
-        <v>-0.03594800058773136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02788651895015588</v>
+      </c>
+      <c r="E85">
+        <v>-0.008680974663333741</v>
+      </c>
+      <c r="F85">
+        <v>-0.04267531894948821</v>
+      </c>
+      <c r="G85">
+        <v>-0.00811103541795961</v>
+      </c>
+      <c r="H85">
+        <v>0.1658315662543387</v>
+      </c>
+      <c r="I85">
+        <v>0.06178826541837171</v>
+      </c>
+      <c r="J85">
+        <v>-0.08847949317268235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06142868544577684</v>
+        <v>0.0582341409280207</v>
       </c>
       <c r="C86">
-        <v>0.01497705948973515</v>
+        <v>-0.03208740334043</v>
       </c>
       <c r="D86">
-        <v>-0.06770342246535764</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01606009592788512</v>
+      </c>
+      <c r="E86">
+        <v>0.02198318848432986</v>
+      </c>
+      <c r="F86">
+        <v>-0.02641962555083134</v>
+      </c>
+      <c r="G86">
+        <v>0.01219677183992842</v>
+      </c>
+      <c r="H86">
+        <v>-0.06685477346449042</v>
+      </c>
+      <c r="I86">
+        <v>0.03047949326477428</v>
+      </c>
+      <c r="J86">
+        <v>-0.0405898707420397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1250968895965354</v>
+        <v>0.129213748550955</v>
       </c>
       <c r="C87">
-        <v>0.06747899505714661</v>
+        <v>-0.06380962567768134</v>
       </c>
       <c r="D87">
-        <v>-0.09236585445011827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06982268903754878</v>
+      </c>
+      <c r="E87">
+        <v>0.05663713357985832</v>
+      </c>
+      <c r="F87">
+        <v>-0.03145752698758549</v>
+      </c>
+      <c r="G87">
+        <v>-0.1651711736646873</v>
+      </c>
+      <c r="H87">
+        <v>-0.1005081032067369</v>
+      </c>
+      <c r="I87">
+        <v>-0.0007887654127176858</v>
+      </c>
+      <c r="J87">
+        <v>-0.01309064670531553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.0580760906013463</v>
+        <v>0.06362587473601419</v>
       </c>
       <c r="C88">
-        <v>0.02968861421465925</v>
+        <v>-0.03302571406832891</v>
       </c>
       <c r="D88">
-        <v>-0.02739646542319408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03670979224867523</v>
+      </c>
+      <c r="E88">
+        <v>-0.006672733342825567</v>
+      </c>
+      <c r="F88">
+        <v>-0.02075973959622719</v>
+      </c>
+      <c r="G88">
+        <v>-0.01524927488985915</v>
+      </c>
+      <c r="H88">
+        <v>0.04381244189176731</v>
+      </c>
+      <c r="I88">
+        <v>-0.0334309595240977</v>
+      </c>
+      <c r="J88">
+        <v>0.02929402379101034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.07091274688059962</v>
+        <v>0.1258593358095641</v>
       </c>
       <c r="C89">
-        <v>0.08182080399178034</v>
+        <v>0.3782391102284943</v>
       </c>
       <c r="D89">
-        <v>0.3179215401333069</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03832496563179413</v>
+      </c>
+      <c r="E89">
+        <v>0.02913673014468574</v>
+      </c>
+      <c r="F89">
+        <v>-0.08872817844310835</v>
+      </c>
+      <c r="G89">
+        <v>0.01908726846641992</v>
+      </c>
+      <c r="H89">
+        <v>0.005573088637806132</v>
+      </c>
+      <c r="I89">
+        <v>-0.07413028356422736</v>
+      </c>
+      <c r="J89">
+        <v>0.05874463272865974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.05944619846788001</v>
+        <v>0.09030317190562255</v>
       </c>
       <c r="C90">
-        <v>0.04408547608073397</v>
+        <v>0.281362062226465</v>
       </c>
       <c r="D90">
-        <v>0.2833052068274927</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0533449192505672</v>
+      </c>
+      <c r="E90">
+        <v>0.0225013973294198</v>
+      </c>
+      <c r="F90">
+        <v>-0.03985865863160114</v>
+      </c>
+      <c r="G90">
+        <v>-0.008981846132161386</v>
+      </c>
+      <c r="H90">
+        <v>-0.02015110969221249</v>
+      </c>
+      <c r="I90">
+        <v>-0.09982473759504164</v>
+      </c>
+      <c r="J90">
+        <v>0.02867677798341051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.1007401272181006</v>
+        <v>0.0925066278785632</v>
       </c>
       <c r="C91">
-        <v>0.04470996777674353</v>
+        <v>-0.02323280622109797</v>
       </c>
       <c r="D91">
-        <v>-0.004172426926713399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02683554528516545</v>
+      </c>
+      <c r="E91">
+        <v>0.001177024311938685</v>
+      </c>
+      <c r="F91">
+        <v>-0.002689878145729334</v>
+      </c>
+      <c r="G91">
+        <v>0.01496129012027123</v>
+      </c>
+      <c r="H91">
+        <v>0.07915749997775175</v>
+      </c>
+      <c r="I91">
+        <v>0.04339563856681517</v>
+      </c>
+      <c r="J91">
+        <v>0.003793130280210149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.05683583660164562</v>
+        <v>0.09345538311129108</v>
       </c>
       <c r="C92">
-        <v>0.06506375344899057</v>
+        <v>0.3328653852016861</v>
       </c>
       <c r="D92">
-        <v>0.3285320448934559</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05070750036092857</v>
+      </c>
+      <c r="E92">
+        <v>0.02919785311322744</v>
+      </c>
+      <c r="F92">
+        <v>-0.04561363612801371</v>
+      </c>
+      <c r="G92">
+        <v>-0.002700741281426102</v>
+      </c>
+      <c r="H92">
+        <v>0.0154061122120324</v>
+      </c>
+      <c r="I92">
+        <v>-0.02490840845937212</v>
+      </c>
+      <c r="J92">
+        <v>0.01572782335510509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.04917481861855763</v>
+        <v>0.09119256211223488</v>
       </c>
       <c r="C93">
-        <v>0.05987168751541547</v>
+        <v>0.3184275673627786</v>
       </c>
       <c r="D93">
-        <v>0.3070970094657924</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.04417855907621572</v>
+      </c>
+      <c r="E93">
+        <v>0.003023304029278173</v>
+      </c>
+      <c r="F93">
+        <v>-0.02932903577357295</v>
+      </c>
+      <c r="G93">
+        <v>-0.009121354137188989</v>
+      </c>
+      <c r="H93">
+        <v>-0.007816126713552951</v>
+      </c>
+      <c r="I93">
+        <v>-0.01320674258134244</v>
+      </c>
+      <c r="J93">
+        <v>0.0003389742872781145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.1289543529483165</v>
+        <v>0.1271489770341613</v>
       </c>
       <c r="C94">
-        <v>0.02004406909049915</v>
+        <v>-0.04678694260309957</v>
       </c>
       <c r="D94">
-        <v>-0.05026420727729632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01442579615969001</v>
+      </c>
+      <c r="E94">
+        <v>0.008759168532516824</v>
+      </c>
+      <c r="F94">
+        <v>-0.02478758045773896</v>
+      </c>
+      <c r="G94">
+        <v>0.05536757290768482</v>
+      </c>
+      <c r="H94">
+        <v>0.104155010034309</v>
+      </c>
+      <c r="I94">
+        <v>0.04641353125519956</v>
+      </c>
+      <c r="J94">
+        <v>-0.03076768774211764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1282110948418069</v>
+        <v>0.1381144471797329</v>
       </c>
       <c r="C95">
-        <v>0.01620048630137444</v>
+        <v>-0.05887575916361749</v>
       </c>
       <c r="D95">
-        <v>-0.07468776332187757</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0175532346811326</v>
+      </c>
+      <c r="E95">
+        <v>0.01400022590048526</v>
+      </c>
+      <c r="F95">
+        <v>-0.05125160724087127</v>
+      </c>
+      <c r="G95">
+        <v>-0.03840967297150963</v>
+      </c>
+      <c r="H95">
+        <v>-0.1321083150674156</v>
+      </c>
+      <c r="I95">
+        <v>-0.04314755884196656</v>
+      </c>
+      <c r="J95">
+        <v>0.01864138306234021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3763,124 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.2393870248476639</v>
+        <v>0.1846174803736305</v>
       </c>
       <c r="C97">
-        <v>0.05289354798743887</v>
+        <v>0.03188375613236111</v>
       </c>
       <c r="D97">
-        <v>0.1200035341720041</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0587945302259438</v>
+      </c>
+      <c r="E97">
+        <v>0.1739878522685527</v>
+      </c>
+      <c r="F97">
+        <v>0.9188925167428006</v>
+      </c>
+      <c r="G97">
+        <v>-0.06000824918998453</v>
+      </c>
+      <c r="H97">
+        <v>-0.0158231167310235</v>
+      </c>
+      <c r="I97">
+        <v>-0.09764715906955568</v>
+      </c>
+      <c r="J97">
+        <v>0.0171663339510875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2636674122220909</v>
+        <v>0.279107395810169</v>
       </c>
       <c r="C98">
-        <v>0.05519487503997922</v>
+        <v>-0.05933829506052971</v>
       </c>
       <c r="D98">
-        <v>-0.02342439574039213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03640598028769833</v>
+      </c>
+      <c r="E98">
+        <v>-0.2612507716909331</v>
+      </c>
+      <c r="F98">
+        <v>0.05710235910360843</v>
+      </c>
+      <c r="G98">
+        <v>0.2632876042186161</v>
+      </c>
+      <c r="H98">
+        <v>-0.173095720718089</v>
+      </c>
+      <c r="I98">
+        <v>0.1962135446115527</v>
+      </c>
+      <c r="J98">
+        <v>0.4704177539219403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.3420231647917674</v>
+        <v>0.2118186408223266</v>
       </c>
       <c r="C99">
-        <v>-0.9136135106498696</v>
+        <v>-0.2189454357137162</v>
       </c>
       <c r="D99">
-        <v>0.09719170647604365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.923559072212728</v>
+      </c>
+      <c r="E99">
+        <v>-0.01021867965949746</v>
+      </c>
+      <c r="F99">
+        <v>-0.09649126569592356</v>
+      </c>
+      <c r="G99">
+        <v>0.02515401433863121</v>
+      </c>
+      <c r="H99">
+        <v>0.1006372693993562</v>
+      </c>
+      <c r="I99">
+        <v>-0.003551275035993973</v>
+      </c>
+      <c r="J99">
+        <v>-0.04917671075751819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3891,60 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05120372598003201</v>
+        <v>0.05346938659183102</v>
       </c>
       <c r="C101">
-        <v>0.04498560990979154</v>
+        <v>0.0007383303130093526</v>
       </c>
       <c r="D101">
-        <v>-0.0005445800423342392</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03923127566956689</v>
+      </c>
+      <c r="E101">
+        <v>0.03298531736261726</v>
+      </c>
+      <c r="F101">
+        <v>-0.03436773176816619</v>
+      </c>
+      <c r="G101">
+        <v>-0.0129841374270592</v>
+      </c>
+      <c r="H101">
+        <v>0.09050347456087642</v>
+      </c>
+      <c r="I101">
+        <v>-0.04504264348293167</v>
+      </c>
+      <c r="J101">
+        <v>0.01174513983499032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3955,28 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3987,28 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +4017,24 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
